--- a/modules/tensor_mechanics/tests/mohr_coulomb/small_deform3_4.xlsx
+++ b/modules/tensor_mechanics/tests/mohr_coulomb/small_deform3_4.xlsx
@@ -13,8 +13,8 @@
     <sheet name="expected" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="small_deform2" localSheetId="1">small_deform3!$C$4:$M$35</definedName>
-    <definedName name="small_deform2" localSheetId="2">small_deform4!$C$4:$M$35</definedName>
+    <definedName name="small_deform2" localSheetId="1">small_deform3!$C$4:$K$35</definedName>
+    <definedName name="small_deform2" localSheetId="2">small_deform4!$C$4:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -58,18 +58,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>time</t>
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>max_ps</t>
-  </si>
-  <si>
-    <t>min_ps</t>
   </si>
   <si>
     <t>s_xx</t>
@@ -132,13 +126,7 @@
     <t>aaa_minus</t>
   </si>
   <si>
-    <t>NEEDS TO BE 1</t>
-  </si>
-  <si>
     <t>internal</t>
-  </si>
-  <si>
-    <t>at lode=30</t>
   </si>
 </sst>
 </file>
@@ -1473,11 +1461,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="188845440"/>
-        <c:axId val="153797760"/>
+        <c:axId val="102689408"/>
+        <c:axId val="130917504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188845440"/>
+        <c:axId val="102689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2"/>
@@ -1504,12 +1492,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153797760"/>
+        <c:crossAx val="130917504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153797760"/>
+        <c:axId val="130917504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -1536,7 +1524,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188845440"/>
+        <c:crossAx val="102689408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1881,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:Q35"/>
+  <dimension ref="C4:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1892,8 +1880,9 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
@@ -1901,12 +1890,7 @@
     <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1934,23 +1918,14 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17">
+    </row>
+    <row r="5" spans="3:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -1978,26 +1953,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="O5" s="2">
+        <f>(F5+I5+K5)/3</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="P5">
+        <f>SQRT(0.5*((F5-O5)^2+(I5-O5)^2+(K5-O5)^2))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <f>(H5+K5+M5)/3</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>SQRT(0.5*((H5-O5)^2+(K5-O5)^2+(M5-O5)^2))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>IF(J5&lt;=G5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17">
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2010,41 +1975,31 @@
       <c r="F6">
         <v>3.2681908400233</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <v>-5.5710243690273E-19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.7645617365932996E-19</v>
+      </c>
+      <c r="I6" s="1">
         <v>2.9642971282607999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
+        <v>5.5312322490527001E-18</v>
+      </c>
+      <c r="K6" s="1">
         <v>3.2681908400233</v>
       </c>
-      <c r="I6" s="1">
-        <v>-5.5710243690273E-19</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.7645617365932996E-19</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.9642971282607999</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5.5312322490527001E-18</v>
-      </c>
-      <c r="M6">
-        <v>3.2681908400233</v>
-      </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6:O14" si="0">(H6+K6+M6)/3</f>
+        <f t="shared" ref="O6:O35" si="0">(F6+I6+K6)/3</f>
         <v>3.1668929361024669</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P14" si="1">SQRT(0.5*((H6-O6)^2+(K6-O6)^2+(M6-O6)^2))</f>
+        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((F6-O6)^2+(I6-O6)^2+(K6-O6)^2))</f>
         <v>0.17545311629111393</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6" si="2">IF(J6&lt;=G6,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17">
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7">
         <v>2</v>
       </c>
@@ -2057,27 +2012,21 @@
       <c r="F7">
         <v>3.3466600041246002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <v>-8.2293591256359001E-19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.0161941642753995E-19</v>
+      </c>
+      <c r="I7" s="1">
         <v>2.7898789796629999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
+        <v>5.8060505833963001E-18</v>
+      </c>
+      <c r="K7" s="1">
         <v>3.3466600041246002</v>
       </c>
-      <c r="I7" s="1">
-        <v>-8.2293591256359001E-19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.0161941642753995E-19</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.7898789796629999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.8060505833963001E-18</v>
-      </c>
-      <c r="M7">
-        <v>3.3466600041246002</v>
-      </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>3.1610663293040666</v>
@@ -2086,12 +2035,8 @@
         <f t="shared" si="1"/>
         <v>0.32145767435258055</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q14" si="3">IF(J7&lt;=G7,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17">
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8">
         <v>3</v>
       </c>
@@ -2104,27 +2049,21 @@
       <c r="F8">
         <v>3.4674785684281</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
+        <v>-7.5948170334265002E-18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.2921718513463E-18</v>
+      </c>
+      <c r="I8" s="1">
         <v>2.4977219968986</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
+        <v>-9.3451700434457002E-18</v>
+      </c>
+      <c r="K8" s="1">
         <v>3.4674785684281</v>
       </c>
-      <c r="I8" s="1">
-        <v>-7.5948170334265002E-18</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.2921718513463E-18</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.4977219968986</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-9.3451700434457002E-18</v>
-      </c>
-      <c r="M8">
-        <v>3.4674785684281</v>
-      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>3.1442263779182666</v>
@@ -2133,12 +2072,8 @@
         <f t="shared" si="1"/>
         <v>0.55988921762096544</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>4</v>
       </c>
@@ -2151,27 +2086,21 @@
       <c r="F9">
         <v>3.5355162705016001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
+        <v>5.9638837785159999E-18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1134798099923E-18</v>
+      </c>
+      <c r="I9" s="1">
         <v>2.3184324341185998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
+        <v>3.1435101087351E-17</v>
+      </c>
+      <c r="K9" s="1">
         <v>3.5355162705016001</v>
       </c>
-      <c r="I9" s="1">
-        <v>5.9638837785159999E-18</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.1134798099923E-18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.3184324341185998</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3.1435101087351E-17</v>
-      </c>
-      <c r="M9">
-        <v>3.5355162705016001</v>
-      </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>3.1298216583739333</v>
@@ -2180,12 +2109,8 @@
         <f t="shared" si="1"/>
         <v>0.70268368056206765</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10">
         <v>5</v>
       </c>
@@ -2198,27 +2123,21 @@
       <c r="F10">
         <v>3.5065288865688</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
+        <v>7.7351203184446994E-18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1.9607522465301E-18</v>
+      </c>
+      <c r="I10" s="1">
         <v>2.3962537843052001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
+        <v>1.4668599371269001E-18</v>
+      </c>
+      <c r="K10" s="1">
         <v>3.5065288865688</v>
       </c>
-      <c r="I10" s="1">
-        <v>7.7351203184446994E-18</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.9607522465301E-18</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.3962537843052001</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.4668599371269001E-18</v>
-      </c>
-      <c r="M10">
-        <v>3.5065288865688</v>
-      </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>3.1364371858142666</v>
@@ -2227,12 +2146,8 @@
         <f t="shared" si="1"/>
         <v>0.64101762916642868</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11">
         <v>6</v>
       </c>
@@ -2245,27 +2160,21 @@
       <c r="F11">
         <v>3.4460425690602001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
+        <v>-2.6334569928081999E-17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.9856669680904996E-18</v>
+      </c>
+      <c r="I11" s="1">
         <v>2.551869768705</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
+        <v>-2.1483520166203E-17</v>
+      </c>
+      <c r="K11" s="1">
         <v>3.4460425690602001</v>
       </c>
-      <c r="I11" s="1">
-        <v>-2.6334569928081999E-17</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4.9856669680904996E-18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.551869768705</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2.1483520166203E-17</v>
-      </c>
-      <c r="M11">
-        <v>3.4460425690602001</v>
-      </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>3.1479849689418002</v>
@@ -2274,12 +2183,8 @@
         <f t="shared" si="1"/>
         <v>0.51625090698711629</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12">
         <v>7</v>
       </c>
@@ -2292,27 +2197,21 @@
       <c r="F12">
         <v>3.4406402470957</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
+        <v>2.0014819064738999E-17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2.2905053305799001E-18</v>
+      </c>
+      <c r="I12" s="1">
         <v>2.56534974188</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
+        <v>6.9346189333303998E-18</v>
+      </c>
+      <c r="K12" s="1">
         <v>3.4406402470957</v>
       </c>
-      <c r="I12" s="1">
-        <v>2.0014819064738999E-17</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-2.2905053305799001E-18</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.56534974188</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.9346189333303998E-18</v>
-      </c>
-      <c r="M12">
-        <v>3.4406402470957</v>
-      </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>3.1488767453571334</v>
@@ -2321,12 +2220,8 @@
         <f t="shared" si="1"/>
         <v>0.50534920880540801</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13">
         <v>8</v>
       </c>
@@ -2339,27 +2234,21 @@
       <c r="F13">
         <v>3.5303985510373002</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
+        <v>-7.0046988027042004E-18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.3132505283015001E-18</v>
+      </c>
+      <c r="I13" s="1">
         <v>2.3323331961927001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
+        <v>7.5351878261178002E-17</v>
+      </c>
+      <c r="K13" s="1">
         <v>3.5303985510373002</v>
       </c>
-      <c r="I13" s="1">
-        <v>-7.0046988027042004E-18</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5.3132505283015001E-18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.3323331961927001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>7.5351878261178002E-17</v>
-      </c>
-      <c r="M13">
-        <v>3.5303985510373002</v>
-      </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>3.1310434327557672</v>
@@ -2368,12 +2257,8 @@
         <f t="shared" si="1"/>
         <v>0.69170335512629433</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14">
         <v>9</v>
       </c>
@@ -2386,27 +2271,21 @@
       <c r="F14">
         <v>3.6804875299339002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
+        <v>-2.0175816799310001E-17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-6.2667096114313999E-18</v>
+      </c>
+      <c r="I14" s="1">
         <v>1.8920707733140001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
+        <v>-7.4563047154489996E-17</v>
+      </c>
+      <c r="K14" s="1">
         <v>3.6804875299339002</v>
       </c>
-      <c r="I14" s="1">
-        <v>-2.0175816799310001E-17</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-6.2667096114313999E-18</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.8920707733140001</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-7.4563047154489996E-17</v>
-      </c>
-      <c r="M14">
-        <v>3.6804875299339002</v>
-      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>3.0843486110606002</v>
@@ -2415,12 +2294,8 @@
         <f t="shared" si="1"/>
         <v>1.0325428958577367</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17">
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15">
         <v>10</v>
       </c>
@@ -2433,41 +2308,31 @@
       <c r="F15">
         <v>3.7736178570654002</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
+        <v>4.4815745884958002E-17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.9307678082056997E-19</v>
+      </c>
+      <c r="I15" s="1">
         <v>1.577985924167</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
+        <v>8.7573181704030995E-17</v>
+      </c>
+      <c r="K15" s="1">
         <v>3.7736178570654002</v>
       </c>
-      <c r="I15" s="1">
-        <v>4.4815745884958002E-17</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7.9307678082056997E-19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.577985924167</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8.7573181704030995E-17</v>
-      </c>
-      <c r="M15">
-        <v>3.7736178570654002</v>
-      </c>
       <c r="O15" s="2">
-        <f t="shared" ref="O15:O35" si="4">(H15+K15+M15)/3</f>
+        <f t="shared" si="0"/>
         <v>3.0417405460992666</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:P35" si="5">SQRT(0.5*((H15-O15)^2+(K15-O15)^2+(M15-O15)^2))</f>
+        <f t="shared" si="1"/>
         <v>1.2676486875002295</v>
       </c>
-      <c r="Q15">
-        <f t="shared" ref="Q15:Q35" si="6">IF(J15&lt;=G15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16">
         <v>11</v>
       </c>
@@ -2480,41 +2345,31 @@
       <c r="F16">
         <v>3.7272203598215001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
+        <v>-3.9363530921824002E-17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.6882030600028001E-18</v>
+      </c>
+      <c r="I16" s="1">
         <v>1.7390364432365999</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
+        <v>7.9430944519267998E-17</v>
+      </c>
+      <c r="K16" s="1">
         <v>3.7272203598215001</v>
       </c>
-      <c r="I16" s="1">
-        <v>-3.9363530921824002E-17</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.6882030600028001E-18</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1.7390364432365999</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7.9430944519267998E-17</v>
-      </c>
-      <c r="M16">
-        <v>3.7272203598215001</v>
-      </c>
       <c r="O16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0644923876265331</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.1478785194387766</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17">
         <v>12</v>
       </c>
@@ -2527,41 +2382,31 @@
       <c r="F17">
         <v>3.6073567705444001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
+        <v>-4.3136193191919999E-17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.5551858466422001E-17</v>
+      </c>
+      <c r="I17" s="1">
         <v>2.1154638966866002</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
+        <v>-1.3050436176025E-16</v>
+      </c>
+      <c r="K17" s="1">
         <v>3.6073567705444001</v>
       </c>
-      <c r="I17" s="1">
-        <v>-4.3136193191919999E-17</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.5551858466422001E-17</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.1154638966866002</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1.3050436176025E-16</v>
-      </c>
-      <c r="M17">
-        <v>3.6073567705444001</v>
-      </c>
       <c r="O17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1100591459251334</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.86134475232388519</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>13</v>
       </c>
@@ -2574,41 +2419,31 @@
       <c r="F18">
         <v>3.5443924650995999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
+        <v>1.0571096491917E-16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.0427365531727001E-17</v>
+      </c>
+      <c r="I18" s="1">
         <v>2.2941545208438998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
+        <v>-3.6845548093039002E-17</v>
+      </c>
+      <c r="K18" s="1">
         <v>3.5443924650995999</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.0571096491917E-16</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.0427365531727001E-17</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.2941545208438998</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3.6845548093039002E-17</v>
-      </c>
-      <c r="M18">
-        <v>3.5443924650995999</v>
-      </c>
       <c r="O18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1276464836810334</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.72182521366711283</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19">
         <v>14</v>
       </c>
@@ -2621,41 +2456,31 @@
       <c r="F19">
         <v>3.6079296630446001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
+        <v>-4.5157385923638E-17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.7754712443888003E-18</v>
+      </c>
+      <c r="I19" s="1">
         <v>2.1137832081749002</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
+        <v>5.7047973458117994E-17</v>
+      </c>
+      <c r="K19" s="1">
         <v>3.6079296630446001</v>
       </c>
-      <c r="I19" s="1">
-        <v>-4.5157385923638E-17</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.7754712443888003E-18</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.1137832081749002</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5.7047973458117994E-17</v>
-      </c>
-      <c r="M19">
-        <v>3.6079296630446001</v>
-      </c>
       <c r="O19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1098808447546999</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.86264585792774628</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20">
         <v>15</v>
       </c>
@@ -2668,41 +2493,31 @@
       <c r="F20">
         <v>3.7703383459809001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
+        <v>-1.0378402352438E-16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.8277518911809002E-18</v>
+      </c>
+      <c r="I20" s="1">
         <v>1.5896923791424999</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
+        <v>1.8583040307288001E-17</v>
+      </c>
+      <c r="K20" s="1">
         <v>3.7703383459809001</v>
       </c>
-      <c r="I20" s="1">
-        <v>-1.0378402352438E-16</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.8277518911809002E-18</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.5896923791424999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.8583040307288001E-17</v>
-      </c>
-      <c r="M20">
-        <v>3.7703383459809001</v>
-      </c>
       <c r="O20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0434563570347666</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2589965359614221</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21">
         <v>16</v>
       </c>
@@ -2715,41 +2530,31 @@
       <c r="F21">
         <v>3.9044351095855001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
+        <v>7.2991589054933999E-17</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.9209420863147001E-17</v>
+      </c>
+      <c r="I21" s="1">
         <v>1.0631328370077</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
+        <v>2.2477919167102002E-16</v>
+      </c>
+      <c r="K21" s="1">
         <v>3.9044351095855001</v>
       </c>
-      <c r="I21" s="1">
-        <v>7.2991589054933999E-17</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.9209420863147001E-17</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.0631328370077</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2.2477919167102002E-16</v>
-      </c>
-      <c r="M21">
-        <v>3.9044351095855001</v>
-      </c>
       <c r="O21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9573343520595667</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.6404266319218883</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17">
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22">
         <v>17</v>
       </c>
@@ -2762,41 +2567,31 @@
       <c r="F22">
         <v>3.8902684186343999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
+        <v>1.6136543677073E-16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.4223399081768999E-18</v>
+      </c>
+      <c r="I22" s="1">
         <v>1.1240082959927999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
+        <v>3.4201660211130002E-17</v>
+      </c>
+      <c r="K22" s="1">
         <v>3.8902684186343999</v>
       </c>
-      <c r="I22" s="1">
-        <v>1.6136543677073E-16</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.4223399081768999E-18</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.1240082959927999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3.4201660211130002E-17</v>
-      </c>
-      <c r="M22">
-        <v>3.8902684186343999</v>
-      </c>
       <c r="O22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9681817110871997</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.5971010264556549</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17">
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23">
         <v>18</v>
       </c>
@@ -2809,41 +2604,31 @@
       <c r="F23">
         <v>3.751935629244</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
+        <v>-1.7617940323505999E-16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1.7086132367022001E-17</v>
+      </c>
+      <c r="I23" s="1">
         <v>1.6544503669321</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
+        <v>-2.0863879916237001E-16</v>
+      </c>
+      <c r="K23" s="1">
         <v>3.751935629244</v>
       </c>
-      <c r="I23" s="1">
-        <v>-1.7617940323505999E-16</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.7086132367022001E-17</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1.6544503669321</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-2.0863879916237001E-16</v>
-      </c>
-      <c r="M23">
-        <v>3.751935629244</v>
-      </c>
       <c r="O23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0527738751400335</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2109836808170482</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17">
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24">
         <v>19</v>
       </c>
@@ -2856,41 +2641,31 @@
       <c r="F24">
         <v>3.6352957779803998</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
+        <v>-1.6053095149778001E-17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-2.2834467854238E-19</v>
+      </c>
+      <c r="I24" s="1">
         <v>2.0322686345671999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
+        <v>-4.1386858831096002E-17</v>
+      </c>
+      <c r="K24" s="1">
         <v>3.6352957779803998</v>
       </c>
-      <c r="I24" s="1">
-        <v>-1.6053095149778001E-17</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-2.2834467854238E-19</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2.0322686345671999</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-4.1386858831096002E-17</v>
-      </c>
-      <c r="M24">
-        <v>3.6352957779803998</v>
-      </c>
       <c r="O24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1009533968426664</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.92550815276788778</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17">
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25">
         <v>20</v>
       </c>
@@ -2903,41 +2678,31 @@
       <c r="F25">
         <v>3.6553554507264998</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
+        <v>1.0501210151894E-16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8248952198296998E-18</v>
+      </c>
+      <c r="I25" s="1">
         <v>1.9709287102866999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
+        <v>2.4160404424252001E-16</v>
+      </c>
+      <c r="K25" s="1">
         <v>3.6553554507264998</v>
       </c>
-      <c r="I25" s="1">
-        <v>1.0501210151894E-16</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.8248952198296998E-18</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1.9709287102866999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2.4160404424252001E-16</v>
-      </c>
-      <c r="M25">
-        <v>3.6553554507264998</v>
-      </c>
       <c r="O25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0938798705798995</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.97250423202312231</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>21</v>
       </c>
@@ -2950,41 +2715,31 @@
       <c r="F26">
         <v>3.8100373160959</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
+        <v>-2.9307538818036E-18</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.1083876166029006E-17</v>
+      </c>
+      <c r="I26" s="1">
         <v>1.4444146931813999</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
+        <v>-8.5615279716711998E-17</v>
+      </c>
+      <c r="K26" s="1">
         <v>3.8100373160959</v>
       </c>
-      <c r="I26" s="1">
-        <v>-2.9307538818036E-18</v>
-      </c>
-      <c r="J26" s="1">
-        <v>8.1083876166029006E-17</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.4444146931813999</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-8.5615279716711998E-17</v>
-      </c>
-      <c r="M26">
-        <v>3.8100373160959</v>
-      </c>
       <c r="O26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0214964417910664</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.3657928581407552</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27">
         <v>22</v>
       </c>
@@ -2997,41 +2752,31 @@
       <c r="F27">
         <v>3.9770700498417999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
+        <v>-1.136108925807E-16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-9.6461227374447999E-17</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.72624684922006999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
+        <v>3.4041101181604E-16</v>
+      </c>
+      <c r="K27" s="1">
         <v>3.9770700498417999</v>
       </c>
-      <c r="I27" s="1">
-        <v>-1.136108925807E-16</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-9.6461227374447999E-17</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.72624684922006999</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3.4041101181604E-16</v>
-      </c>
-      <c r="M27">
-        <v>3.9770700498417999</v>
-      </c>
       <c r="O27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.893462316301223</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.8768636499668365</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17">
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28">
         <v>23</v>
       </c>
@@ -3044,41 +2789,31 @@
       <c r="F28">
         <v>4.0108089915885001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
+        <v>-1.8110346856542E-16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-3.1255627067547E-17</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.55316199019800005</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
+        <v>6.9805975667436002E-16</v>
+      </c>
+      <c r="K28" s="1">
         <v>4.0108089915885001</v>
       </c>
-      <c r="I28" s="1">
-        <v>-1.8110346856542E-16</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-3.1255627067547E-17</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.55316199019800005</v>
-      </c>
-      <c r="L28" s="1">
-        <v>6.9805975667436002E-16</v>
-      </c>
-      <c r="M28">
-        <v>4.0108089915885001</v>
-      </c>
       <c r="O28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8582599911250006</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.9962734270155078</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17">
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29">
         <v>24</v>
       </c>
@@ -3091,41 +2826,31 @@
       <c r="F29">
         <v>3.8871629569374999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
+        <v>9.6779510614188994E-18</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.0464044569413995E-17</v>
+      </c>
+      <c r="I29" s="1">
         <v>1.1371648600397</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
+        <v>-9.6299974714867006E-16</v>
+      </c>
+      <c r="K29" s="1">
         <v>3.8871629569374999</v>
       </c>
-      <c r="I29" s="1">
-        <v>9.6779510614188994E-18</v>
-      </c>
-      <c r="J29" s="1">
-        <v>7.0464044569413995E-17</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1.1371648600397</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-9.6299974714867006E-16</v>
-      </c>
-      <c r="M29">
-        <v>3.8871629569374999</v>
-      </c>
       <c r="O29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9704969246382333</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.5877121415149034</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17">
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30">
         <v>25</v>
       </c>
@@ -3138,41 +2863,31 @@
       <c r="F30">
         <v>3.7292978731866002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
+        <v>1.0238343519840999E-18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.7004314415160001E-17</v>
+      </c>
+      <c r="I30" s="1">
         <v>1.73202774115</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
+        <v>-9.0646082769446998E-17</v>
+      </c>
+      <c r="K30" s="1">
         <v>3.7292978731866002</v>
       </c>
-      <c r="I30" s="1">
-        <v>1.0238343519840999E-18</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.7004314415160001E-17</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.73202774115</v>
-      </c>
-      <c r="L30" s="1">
-        <v>-9.0646082769446998E-17</v>
-      </c>
-      <c r="M30">
-        <v>3.7292978731866002</v>
-      </c>
       <c r="O30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0635411625077338</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.1531244483757304</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17">
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31">
         <v>26</v>
       </c>
@@ -3185,41 +2900,31 @@
       <c r="F31">
         <v>3.6954597491857002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
+        <v>3.0776984457610002E-16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-4.3234654456485999E-17</v>
+      </c>
+      <c r="I31" s="1">
         <v>1.8439781258961001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
+        <v>-8.8296505834860002E-17</v>
+      </c>
+      <c r="K31" s="1">
         <v>3.6954597491857002</v>
       </c>
-      <c r="I31" s="1">
-        <v>3.0776984457610002E-16</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-4.3234654456485999E-17</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.8439781258961001</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-8.8296505834860002E-17</v>
-      </c>
-      <c r="M31">
-        <v>3.6954597491857002</v>
-      </c>
       <c r="O31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0782992080891667</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.0689534136058958</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32">
         <v>27</v>
       </c>
@@ -3232,41 +2937,31 @@
       <c r="F32">
         <v>3.8244886268378999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
+        <v>-1.0300784021838999E-16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7.3771435319843002E-17</v>
+      </c>
+      <c r="I32" s="1">
         <v>1.3894991605353</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
+        <v>1.2329497974178001E-16</v>
+      </c>
+      <c r="K32" s="1">
         <v>3.8244886268378999</v>
       </c>
-      <c r="I32" s="1">
-        <v>-1.0300784021838999E-16</v>
-      </c>
-      <c r="J32" s="1">
-        <v>7.3771435319843002E-17</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.3894991605353</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1.2329497974178001E-16</v>
-      </c>
-      <c r="M32">
-        <v>3.8244886268378999</v>
-      </c>
       <c r="O32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0128254714036999</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4058418238437091</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17">
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33">
         <v>28</v>
       </c>
@@ -3279,41 +2974,31 @@
       <c r="F33">
         <v>4.0113635423930996</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
+        <v>-3.1498328943399998E-17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-6.9793421368282996E-17</v>
+      </c>
+      <c r="I33" s="1">
         <v>0.55021472131850002</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
+        <v>4.0370852341048001E-17</v>
+      </c>
+      <c r="K33" s="1">
         <v>4.0113635423930996</v>
       </c>
-      <c r="I33" s="1">
-        <v>-3.1498328943399998E-17</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-6.9793421368282996E-17</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.55021472131850002</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4.0370852341048001E-17</v>
-      </c>
-      <c r="M33">
-        <v>4.0113635423930996</v>
-      </c>
       <c r="O33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8576472687015659</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.9982952035527759</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17">
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
         <v>29</v>
       </c>
@@ -3326,41 +3011,31 @@
       <c r="F34">
         <v>4.0931981672258999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
+        <v>-3.0724736846146998E-16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.6748506182344001E-17</v>
+      </c>
+      <c r="I34" s="1">
         <v>7.1065526361851997E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
+        <v>2.6688931879751001E-17</v>
+      </c>
+      <c r="K34" s="1">
         <v>4.0931981672258999</v>
       </c>
-      <c r="I34" s="1">
-        <v>-3.0724736846146998E-16</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3.6748506182344001E-17</v>
-      </c>
-      <c r="K34" s="1">
-        <v>7.1065526361851997E-2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2.6688931879751001E-17</v>
-      </c>
-      <c r="M34">
-        <v>4.0931981672258999</v>
-      </c>
       <c r="O34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.752487286937884</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.3221793629192384</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17">
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35">
         <v>30</v>
       </c>
@@ -3373,38 +3048,28 @@
       <c r="F35">
         <v>4.0081053690664996</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
+        <v>-4.1223419719813002E-17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-3.9685495163674002E-17</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.56748120054063</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
+        <v>5.5226745102114E-18</v>
+      </c>
+      <c r="K35" s="1">
         <v>4.0081053690664996</v>
       </c>
-      <c r="I35" s="1">
-        <v>-4.1223419719813002E-17</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-3.9685495163674002E-17</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.56748120054063</v>
-      </c>
-      <c r="L35" s="1">
-        <v>5.5226745102114E-18</v>
-      </c>
-      <c r="M35">
-        <v>4.0081053690664996</v>
-      </c>
       <c r="O35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8612306462245432</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.986445289878743</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3415,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:Q35"/>
+  <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O5" sqref="O5:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3426,20 +3091,16 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -3467,23 +3128,14 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17">
+    </row>
+    <row r="5" spans="3:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -3511,26 +3163,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="O5" s="2">
+        <f>(F5+I5+K5)/3</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="P5">
+        <f>SQRT(0.5*((F5-O5)^2+(I5-O5)^2+(K5-O5)^2))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <f>(H5+K5+M5)/3</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>SQRT(0.5*((H5-O5)^2+(K5-O5)^2+(M5-O5)^2))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>IF(J5&lt;=G5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17">
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6">
         <v>1</v>
       </c>
@@ -3541,43 +3183,33 @@
         <v>1.9296682226752999E-5</v>
       </c>
       <c r="F6">
+        <v>3.0312216306100002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1.6776346961431999E-20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.5514691782030996E-19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.0312216306100002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.0150339415744996E-18</v>
+      </c>
+      <c r="K6" s="1">
         <v>3.4166375028889</v>
       </c>
-      <c r="G6">
-        <v>3.0312216306100002</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.0312216306100002</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-1.6776346961431999E-20</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.5514691782030996E-19</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.0312216306100002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7.0150339415744996E-18</v>
-      </c>
-      <c r="M6">
-        <v>3.4166375028889</v>
-      </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6:O35" si="0">(H6+K6+M6)/3</f>
+        <f t="shared" ref="O6:O35" si="0">(F6+I6+K6)/3</f>
         <v>3.1596935880363</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((H6-O6)^2+(K6-O6)^2+(M6-O6)^2))</f>
+        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((F6-O6)^2+(I6-O6)^2+(K6-O6)^2))</f>
         <v>0.22251995761017726</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q35" si="2">IF(J6&lt;=G6,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17">
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7">
         <v>2</v>
       </c>
@@ -3588,29 +3220,23 @@
         <v>3.2215003961272E-5</v>
       </c>
       <c r="F7">
+        <v>2.8990286461289001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1.2003131537244999E-19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.0744160036168996E-19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.8990286461289001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.4487694418922995E-18</v>
+      </c>
+      <c r="K7" s="1">
         <v>3.6111821046849002</v>
       </c>
-      <c r="G7">
-        <v>2.8990286461289001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.8990286461289001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1.2003131537244999E-19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.0744160036168996E-19</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.8990286461289001</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7.4487694418922995E-18</v>
-      </c>
-      <c r="M7">
-        <v>3.6111821046849002</v>
-      </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>3.1364131323142335</v>
@@ -3619,12 +3245,8 @@
         <f t="shared" si="1"/>
         <v>0.41116199100162965</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17">
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8">
         <v>3</v>
       </c>
@@ -3635,29 +3257,23 @@
         <v>3.8861998841840001E-5</v>
       </c>
       <c r="F8">
+        <v>2.4412330127516002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.8563538709529001E-19</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-2.2612229151994001E-18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.4412330127516002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1.5752444054578999E-17</v>
+      </c>
+      <c r="K8" s="1">
         <v>4.0978629645118998</v>
       </c>
-      <c r="G8">
-        <v>2.4412330127516002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.4412330127516002</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.8563538709529001E-19</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-2.2612229151994001E-18</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.4412330127516002</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1.5752444054578999E-17</v>
-      </c>
-      <c r="M8">
-        <v>4.0978629645118998</v>
-      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>2.9934429966716998</v>
@@ -3666,12 +3282,8 @@
         <f t="shared" si="1"/>
         <v>0.9564557485964057</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>4</v>
       </c>
@@ -3682,29 +3294,23 @@
         <v>4.4145237557635E-5</v>
       </c>
       <c r="F9">
+        <v>2.127265312484</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.3798600227503999E-19</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-3.2408456830255001E-18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.127265312484</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.4884184981322999E-17</v>
+      </c>
+      <c r="K9" s="1">
         <v>4.3310391178818</v>
       </c>
-      <c r="G9">
-        <v>2.127265312484</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.127265312484</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.3798600227503999E-19</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-3.2408456830255001E-18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.127265312484</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5.4884184981322999E-17</v>
-      </c>
-      <c r="M9">
-        <v>4.3310391178818</v>
-      </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>2.861856580949933</v>
@@ -3713,12 +3319,8 @@
         <f t="shared" si="1"/>
         <v>1.2723493997794657</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10">
         <v>5</v>
       </c>
@@ -3729,29 +3331,23 @@
         <v>5.1192147127847998E-5</v>
       </c>
       <c r="F10">
+        <v>2.5482604272925999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.8137248104233998E-20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-5.9187754410910004E-19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.5482604272925999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.3098316873003001E-18</v>
+      </c>
+      <c r="K10" s="1">
         <v>4.0030499544165004</v>
       </c>
-      <c r="G10">
-        <v>2.5482604272925999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.5482604272925999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3.8137248104233998E-20</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-5.9187754410910004E-19</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.5482604272925999</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3.3098316873003001E-18</v>
-      </c>
-      <c r="M10">
-        <v>4.0030499544165004</v>
-      </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>3.0331902696672337</v>
@@ -3760,12 +3356,8 @@
         <f t="shared" si="1"/>
         <v>0.83992312509923228</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11">
         <v>6</v>
       </c>
@@ -3776,29 +3368,23 @@
         <v>6.0396627650823001E-5</v>
       </c>
       <c r="F11">
+        <v>2.8346577851179</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.6102918275330999E-19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.4986040695793001E-18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.8346577851179</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-2.0183355748587999E-17</v>
+      </c>
+      <c r="K11" s="1">
         <v>3.6947802219604</v>
       </c>
-      <c r="G11">
-        <v>2.8346577851179</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.8346577851179</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-1.6102918275330999E-19</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.4986040695793001E-18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.8346577851179</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2.0183355748587999E-17</v>
-      </c>
-      <c r="M11">
-        <v>3.6947802219604</v>
-      </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>3.1213652640653997</v>
@@ -3807,12 +3393,8 @@
         <f t="shared" si="1"/>
         <v>0.49659192044705425</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12">
         <v>7</v>
       </c>
@@ -3823,29 +3405,23 @@
         <v>6.9382314654656003E-5</v>
       </c>
       <c r="F12">
+        <v>2.8699407334633</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-6.4660108819475995E-20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.318224503129E-18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.8699407334633</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.2538618286699997E-18</v>
+      </c>
+      <c r="K12" s="1">
         <v>3.6497541663268001</v>
       </c>
-      <c r="G12">
-        <v>2.8699407334633</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2.8699407334633</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-6.4660108819475995E-20</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.318224503129E-18</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.8699407334633</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.2538618286699997E-18</v>
-      </c>
-      <c r="M12">
-        <v>3.6497541663268001</v>
-      </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>3.1298785444177999</v>
@@ -3854,12 +3430,8 @@
         <f t="shared" si="1"/>
         <v>0.45022549538142786</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13">
         <v>8</v>
       </c>
@@ -3870,29 +3442,23 @@
         <v>7.6019241543168E-5</v>
       </c>
       <c r="F13">
+        <v>2.6628716331794999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-3.3665228654177E-19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.4041712075776002E-18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.6628716331794999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.7547813081846002E-17</v>
+      </c>
+      <c r="K13" s="1">
         <v>3.8904159415541999</v>
       </c>
-      <c r="G13">
-        <v>2.6628716331794999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2.6628716331794999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-3.3665228654177E-19</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.4041712075776002E-18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.6628716331794999</v>
-      </c>
-      <c r="L13" s="1">
-        <v>7.7547813081846002E-17</v>
-      </c>
-      <c r="M13">
-        <v>3.8904159415541999</v>
-      </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>3.0720530693044004</v>
@@ -3901,12 +3467,8 @@
         <f t="shared" si="1"/>
         <v>0.70872303688232607</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14">
         <v>9</v>
       </c>
@@ -3917,29 +3479,23 @@
         <v>8.009767875345E-5</v>
       </c>
       <c r="F14">
+        <v>1.9410116327494</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6.4846660870129002E-19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-6.9469455170349995E-18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.9410116327494</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1.0403169915237001E-16</v>
+      </c>
+      <c r="K14" s="1">
         <v>4.4447724403390998</v>
       </c>
-      <c r="G14">
-        <v>1.9410116327494</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.9410116327494</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6.4846660870129002E-19</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-6.9469455170349995E-18</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.9410116327494</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-1.0403169915237001E-16</v>
-      </c>
-      <c r="M14">
-        <v>4.4447724403390998</v>
-      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>2.775598568612633</v>
@@ -3948,12 +3504,8 @@
         <f t="shared" si="1"/>
         <v>1.4455469762483479</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17">
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15">
         <v>10</v>
       </c>
@@ -3964,29 +3516,23 @@
         <v>8.3196417832836995E-5</v>
       </c>
       <c r="F15">
+        <v>1.0289404625880001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1.0140256532679999E-19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-6.3062678488682E-18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0289404625880001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.4372612277561001E-16</v>
+      </c>
+      <c r="K15" s="1">
         <v>4.8353067353085999</v>
       </c>
-      <c r="G15">
-        <v>1.0289404625880001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.0289404625880001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-1.0140256532679999E-19</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-6.3062678488682E-18</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.0289404625880001</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1.4372612277561001E-16</v>
-      </c>
-      <c r="M15">
-        <v>4.8353067353085999</v>
-      </c>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
         <v>2.2977292201615334</v>
@@ -3995,12 +3541,8 @@
         <f t="shared" si="1"/>
         <v>2.1976065921895507</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16">
         <v>11</v>
       </c>
@@ -4011,29 +3553,23 @@
         <v>8.6850438581878006E-5</v>
       </c>
       <c r="F16">
+        <v>1.5899814023998</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.1463697475764003E-19</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-8.5333478894770003E-19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.5899814023998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.2020432187410001E-16</v>
+      </c>
+      <c r="K16" s="1">
         <v>4.6225934292988997</v>
       </c>
-      <c r="G16">
-        <v>1.5899814023998</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.5899814023998</v>
-      </c>
-      <c r="I16" s="1">
-        <v>6.1463697475764003E-19</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-8.5333478894770003E-19</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1.5899814023998</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1.2020432187410001E-16</v>
-      </c>
-      <c r="M16">
-        <v>4.6225934292988997</v>
-      </c>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
         <v>2.6008520780328332</v>
@@ -4042,12 +3578,8 @@
         <f t="shared" si="1"/>
         <v>1.7508793700778917</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17">
         <v>12</v>
       </c>
@@ -4058,29 +3590,23 @@
         <v>9.2426472206830996E-5</v>
       </c>
       <c r="F17">
+        <v>2.4980105617080999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2.4402964683150999E-19</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.352183383839E-20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.4980105617080999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.2575705759282E-16</v>
+      </c>
+      <c r="K17" s="1">
         <v>4.0487089488276</v>
       </c>
-      <c r="G17">
-        <v>2.4980105617080999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2.4980105617080999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-2.4402964683150999E-19</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.352183383839E-20</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.4980105617080999</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1.2575705759282E-16</v>
-      </c>
-      <c r="M17">
-        <v>4.0487089488276</v>
-      </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
         <v>3.0149100240812667</v>
@@ -4089,12 +3615,8 @@
         <f t="shared" si="1"/>
         <v>0.89529613123536189</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>13</v>
       </c>
@@ -4105,29 +3627,23 @@
         <v>9.9018338400273995E-5</v>
       </c>
       <c r="F18">
+        <v>2.7453559940929999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2.7062948805895E-19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.9953415169511998E-18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.7453559940929999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-3.0702079731795002E-17</v>
+      </c>
+      <c r="K18" s="1">
         <v>3.8009787826566002</v>
       </c>
-      <c r="G18">
-        <v>2.7453559940929999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2.7453559940929999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-2.7062948805895E-19</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.9953415169511998E-18</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.7453559940929999</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3.0702079731795002E-17</v>
-      </c>
-      <c r="M18">
-        <v>3.8009787826566002</v>
-      </c>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>3.0972302569475332</v>
@@ -4136,12 +3652,8 @@
         <f t="shared" si="1"/>
         <v>0.60946410113989802</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19">
         <v>14</v>
       </c>
@@ -4152,29 +3664,23 @@
         <v>1.0456735441659001E-4</v>
       </c>
       <c r="F19">
+        <v>2.6035428270943002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.4117694297093998E-20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.5818979787784996E-18</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.6035428270943002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5.2423973292929002E-17</v>
+      </c>
+      <c r="K19" s="1">
         <v>3.9502792277376</v>
       </c>
-      <c r="G19">
-        <v>2.6035428270943002</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.6035428270943002</v>
-      </c>
-      <c r="I19" s="1">
-        <v>7.4117694297093998E-20</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.5818979787784996E-18</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.6035428270943002</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5.2423973292929002E-17</v>
-      </c>
-      <c r="M19">
-        <v>3.9502792277376</v>
-      </c>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>3.0524549606420668</v>
@@ -4183,12 +3689,8 @@
         <f t="shared" si="1"/>
         <v>0.77753862343887681</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20">
         <v>15</v>
       </c>
@@ -4199,29 +3701,23 @@
         <v>1.0821996775657001E-4</v>
       </c>
       <c r="F20">
+        <v>1.8894363407514001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-4.3045482853220001E-19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-9.6881789792217998E-18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.8894363407514001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.1644576402034001E-17</v>
+      </c>
+      <c r="K20" s="1">
         <v>4.4736521818078003</v>
       </c>
-      <c r="G20">
-        <v>1.8894363407514001</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.8894363407514001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-4.3045482853220001E-19</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-9.6881789792217998E-18</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.8894363407514001</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2.1644576402034001E-17</v>
-      </c>
-      <c r="M20">
-        <v>4.4736521818078003</v>
-      </c>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>2.7508416211035338</v>
@@ -4230,12 +3726,8 @@
         <f t="shared" si="1"/>
         <v>1.4919977114780079</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21">
         <v>16</v>
       </c>
@@ -4246,29 +3738,23 @@
         <v>1.1084238164484999E-4</v>
       </c>
       <c r="F21">
+        <v>0.54160679878502005</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.1000318506478001E-18</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.7366411939163001E-19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.54160679878502005</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.4567774591144002E-16</v>
+      </c>
+      <c r="K21" s="1">
         <v>4.9703629735782</v>
       </c>
-      <c r="G21">
-        <v>0.54160679878502005</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.54160679878502005</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.1000318506478001E-18</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.7366411939163001E-19</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.54160679878502005</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3.4567774591144002E-16</v>
-      </c>
-      <c r="M21">
-        <v>4.9703629735782</v>
-      </c>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>2.0178588570494136</v>
@@ -4277,12 +3763,8 @@
         <f t="shared" si="1"/>
         <v>2.5569435696920597</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17">
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22">
         <v>17</v>
       </c>
@@ -4293,29 +3775,23 @@
         <v>1.1350888829858E-4</v>
       </c>
       <c r="F22">
+        <v>0.52730555250293998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1.8641487584345E-19</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-9.3840980424020997E-18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.52730555250293998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.1175919370979003E-17</v>
+      </c>
+      <c r="K22" s="1">
         <v>4.9737831287540004</v>
       </c>
-      <c r="G22">
-        <v>0.52730555250293998</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.52730555250293998</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-1.8641487584345E-19</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-9.3840980424020997E-18</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.52730555250293998</v>
-      </c>
-      <c r="L22" s="1">
-        <v>7.1175919370979003E-17</v>
-      </c>
-      <c r="M22">
-        <v>4.9737831287540004</v>
-      </c>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
         <v>2.0094647445866269</v>
@@ -4324,12 +3800,8 @@
         <f t="shared" si="1"/>
         <v>2.5671750255941843</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17">
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23">
         <v>18</v>
       </c>
@@ -4340,29 +3812,23 @@
         <v>1.173689339431E-4</v>
       </c>
       <c r="F23">
+        <v>1.9641189471448</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-2.4875333162900999E-19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.4628289239485998E-18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.9641189471448</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-2.2390420005927001E-16</v>
+      </c>
+      <c r="K23" s="1">
         <v>4.4314865918913</v>
       </c>
-      <c r="G23">
-        <v>1.9641189471448</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.9641189471448</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-2.4875333162900999E-19</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4.4628289239485998E-18</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1.9641189471448</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-2.2390420005927001E-16</v>
-      </c>
-      <c r="M23">
-        <v>4.4314865918913</v>
-      </c>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
         <v>2.7865748287269665</v>
@@ -4371,12 +3837,8 @@
         <f t="shared" si="1"/>
         <v>1.4245353738841646</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17">
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24">
         <v>19</v>
       </c>
@@ -4387,29 +3849,23 @@
         <v>1.2268341217739999E-4</v>
       </c>
       <c r="F24">
+        <v>2.5958843611721001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.8869157610279999E-19</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.1021620077501E-18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.5958843611721001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-3.5594092466359999E-17</v>
+      </c>
+      <c r="K24" s="1">
         <v>3.9577567292593998</v>
       </c>
-      <c r="G24">
-        <v>2.5958843611721001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2.5958843611721001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.8869157610279999E-19</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2.1021620077501E-18</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2.5958843611721001</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-3.5594092466359999E-17</v>
-      </c>
-      <c r="M24">
-        <v>3.9577567292593998</v>
-      </c>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
         <v>3.0498418172011998</v>
@@ -4418,12 +3874,8 @@
         <f t="shared" si="1"/>
         <v>0.78627737831711564</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17">
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25">
         <v>20</v>
       </c>
@@ -4434,29 +3886,23 @@
         <v>1.2772435825213999E-4</v>
       </c>
       <c r="F25">
+        <v>2.5806101836269999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-3.8627711477924999E-19</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.1100063361016001E-18</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.5806101836269999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.0284875246941999E-16</v>
+      </c>
+      <c r="K25" s="1">
         <v>3.9725068631129998</v>
       </c>
-      <c r="G25">
-        <v>2.5806101836269999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.5806101836269999</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-3.8627711477924999E-19</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.1100063361016001E-18</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2.5806101836269999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2.0284875246941999E-16</v>
-      </c>
-      <c r="M25">
-        <v>3.9725068631129998</v>
-      </c>
       <c r="O25" s="2">
         <f t="shared" si="0"/>
         <v>3.0445757434556668</v>
@@ -4465,12 +3911,8 @@
         <f t="shared" si="1"/>
         <v>0.80361192258538827</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>21</v>
       </c>
@@ -4481,29 +3923,23 @@
         <v>1.3128891107857E-4</v>
       </c>
       <c r="F26">
+        <v>1.9840187979568</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.9253560504668999E-19</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.6690056923876E-18</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.9840187979568</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-9.3677036538303003E-17</v>
+      </c>
+      <c r="K26" s="1">
         <v>4.4198672429143002</v>
       </c>
-      <c r="G26">
-        <v>1.9840187979568</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.9840187979568</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2.9253560504668999E-19</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2.6690056923876E-18</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.9840187979568</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-9.3677036538303003E-17</v>
-      </c>
-      <c r="M26">
-        <v>4.4198672429143002</v>
-      </c>
       <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>2.7959682796092999</v>
@@ -4512,12 +3948,8 @@
         <f t="shared" si="1"/>
         <v>1.4063377554013441</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27">
         <v>22</v>
       </c>
@@ -4528,29 +3960,23 @@
         <v>1.3375033620442999E-4</v>
       </c>
       <c r="F27">
+        <v>0.47124810824938002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.2819905455534002E-19</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-6.6892584358786999E-18</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.47124810824938002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4.7024970965012003E-16</v>
+      </c>
+      <c r="K27" s="1">
         <v>4.9869242404851004</v>
       </c>
-      <c r="G27">
-        <v>0.47124810824938002</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.47124810824938002</v>
-      </c>
-      <c r="I27" s="1">
-        <v>4.2819905455534002E-19</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-6.6892584358786999E-18</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.47124810824938002</v>
-      </c>
-      <c r="L27" s="1">
-        <v>4.7024970965012003E-16</v>
-      </c>
-      <c r="M27">
-        <v>4.9869242404851004</v>
-      </c>
       <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>1.9764734856612869</v>
@@ -4559,12 +3985,8 @@
         <f t="shared" si="1"/>
         <v>2.6071268305194613</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17">
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28">
         <v>23</v>
       </c>
@@ -4575,29 +3997,23 @@
         <v>1.3601860573543001E-4</v>
       </c>
       <c r="F28">
+        <v>-0.32809899135499998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.2419652158303E-18</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-5.0556087269062999E-18</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.32809899135499998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.0790725282902999E-15</v>
+      </c>
+      <c r="K28" s="1">
         <v>5.1351326055608997</v>
       </c>
-      <c r="G28">
-        <v>-0.32809899135499998</v>
-      </c>
-      <c r="H28" s="1">
-        <v>-0.32809899135499998</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.2419652158303E-18</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-5.0556087269062999E-18</v>
-      </c>
-      <c r="K28" s="1">
-        <v>-0.32809899135499998</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.0790725282902999E-15</v>
-      </c>
-      <c r="M28">
-        <v>5.1351326055608997</v>
-      </c>
       <c r="O28" s="2">
         <f t="shared" si="0"/>
         <v>1.4929782076169664</v>
@@ -4606,12 +4022,8 @@
         <f t="shared" si="1"/>
         <v>3.1541982331246636</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17">
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29">
         <v>24</v>
       </c>
@@ -4622,29 +4034,23 @@
         <v>1.3888635264575999E-4</v>
       </c>
       <c r="F29">
+        <v>1.1406337355214999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.1054623788301005E-20</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-5.4162691575500997E-18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.1406337355214999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1.1271014606078E-15</v>
+      </c>
+      <c r="K29" s="1">
         <v>4.7985531913227</v>
       </c>
-      <c r="G29">
-        <v>1.1406337355214999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.1406337355214999</v>
-      </c>
-      <c r="I29" s="1">
-        <v>6.1054623788301005E-20</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-5.4162691575500997E-18</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1.1406337355214999</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-1.1271014606078E-15</v>
-      </c>
-      <c r="M29">
-        <v>4.7985531913227</v>
-      </c>
       <c r="O29" s="2">
         <f t="shared" si="0"/>
         <v>2.3599402207885665</v>
@@ -4653,12 +4059,8 @@
         <f t="shared" si="1"/>
         <v>2.111900782480792</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17">
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30">
         <v>25</v>
       </c>
@@ -4669,29 +4071,23 @@
         <v>1.4320677098313001E-4</v>
       </c>
       <c r="F30">
+        <v>2.3586828381696998</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-3.4417517553402002E-19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.4221182440456999E-18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.3586828381696998</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-9.3202268924424999E-17</v>
+      </c>
+      <c r="K30" s="1">
         <v>4.165118366513</v>
       </c>
-      <c r="G30">
-        <v>2.3586828381696998</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2.3586828381696998</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-3.4417517553402002E-19</v>
-      </c>
-      <c r="J30" s="1">
-        <v>3.4221182440456999E-18</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2.3586828381696998</v>
-      </c>
-      <c r="L30" s="1">
-        <v>-9.3202268924424999E-17</v>
-      </c>
-      <c r="M30">
-        <v>4.165118366513</v>
-      </c>
       <c r="O30" s="2">
         <f t="shared" si="0"/>
         <v>2.9608280142841337</v>
@@ -4700,12 +4096,8 @@
         <f t="shared" si="1"/>
         <v>1.0429460385627081</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17">
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31">
         <v>26</v>
       </c>
@@ -4716,29 +4108,23 @@
         <v>1.4787689874190999E-4</v>
       </c>
       <c r="F31">
+        <v>2.5487520937846</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-6.9087175968476997E-19</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.4120170653304E-18</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.5487520937846</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-7.0310992509644006E-17</v>
+      </c>
+      <c r="K31" s="1">
         <v>4.0025926570103003</v>
       </c>
-      <c r="G31">
-        <v>2.5487520937846</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2.5487520937846</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-6.9087175968476997E-19</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.4120170653304E-18</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2.5487520937846</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-7.0310992509644006E-17</v>
-      </c>
-      <c r="M31">
-        <v>4.0025926570103003</v>
-      </c>
       <c r="O31" s="2">
         <f t="shared" si="0"/>
         <v>3.0333656148598336</v>
@@ -4747,12 +4133,8 @@
         <f t="shared" si="1"/>
         <v>0.83937524053715518</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32">
         <v>27</v>
       </c>
@@ -4763,29 +4145,23 @@
         <v>1.5146333568298999E-4</v>
       </c>
       <c r="F32">
+        <v>2.1120965404248002</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1.0477019111712E-19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.5124359118628999E-18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.1120965404248002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.1700251100095E-16</v>
+      </c>
+      <c r="K32" s="1">
         <v>4.3409004328070004</v>
       </c>
-      <c r="G32">
-        <v>2.1120965404248002</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2.1120965404248002</v>
-      </c>
-      <c r="I32" s="1">
-        <v>-1.0477019111712E-19</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2.5124359118628999E-18</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2.1120965404248002</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1.1700251100095E-16</v>
-      </c>
-      <c r="M32">
-        <v>4.3409004328070004</v>
-      </c>
       <c r="O32" s="2">
         <f t="shared" si="0"/>
         <v>2.855031171218867</v>
@@ -4794,12 +4170,8 @@
         <f t="shared" si="1"/>
         <v>1.286800527237749</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17">
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33">
         <v>28</v>
       </c>
@@ -4810,29 +4182,23 @@
         <v>1.5389821671630001E-4</v>
       </c>
       <c r="F33">
+        <v>0.66319276287617002</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4.5185632140048997E-19</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-2.4251862725593998E-18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.66319276287617002</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4.9238146495583999E-17</v>
+      </c>
+      <c r="K33" s="1">
         <v>4.9401305999837</v>
       </c>
-      <c r="G33">
-        <v>0.66319276287617002</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.66319276287617002</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4.5185632140048997E-19</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-2.4251862725593998E-18</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.66319276287617002</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4.9238146495583999E-17</v>
-      </c>
-      <c r="M33">
-        <v>4.9401305999837</v>
-      </c>
       <c r="O33" s="2">
         <f t="shared" si="0"/>
         <v>2.0888387085786797</v>
@@ -4841,12 +4207,8 @@
         <f t="shared" si="1"/>
         <v>2.4692912115613281</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17">
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
         <v>29</v>
       </c>
@@ -4857,29 +4219,23 @@
         <v>1.5598243766817E-4</v>
       </c>
       <c r="F34">
+        <v>-0.81558352086053998</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.1804385143160001E-18</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1.1992651393516E-17</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-0.81558352086053998</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4.0614155596231999E-17</v>
+      </c>
+      <c r="K34" s="1">
         <v>5.1970225822396996</v>
       </c>
-      <c r="G34">
-        <v>-0.81558352086053998</v>
-      </c>
-      <c r="H34" s="1">
-        <v>-0.81558352086053998</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2.1804385143160001E-18</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1.1992651393516E-17</v>
-      </c>
-      <c r="K34" s="1">
-        <v>-0.81558352086053998</v>
-      </c>
-      <c r="L34" s="1">
-        <v>4.0614155596231999E-17</v>
-      </c>
-      <c r="M34">
-        <v>5.1970225822396996</v>
-      </c>
       <c r="O34" s="2">
         <f t="shared" si="0"/>
         <v>1.1886185135062066</v>
@@ -4888,12 +4244,8 @@
         <f t="shared" si="1"/>
         <v>3.4713797521561101</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17">
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35">
         <v>30</v>
       </c>
@@ -4904,29 +4256,23 @@
         <v>1.583044226087E-4</v>
       </c>
       <c r="F35">
+        <v>0.10671058438551</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1.4851097070916001E-18</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-2.5217746486277001E-18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.10671058438551</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9.8798457842835999E-18</v>
+      </c>
+      <c r="K35" s="1">
         <v>5.0629000417026004</v>
       </c>
-      <c r="G35">
-        <v>0.10671058438551</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.10671058438551</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-1.4851097070916001E-18</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-2.5217746486277001E-18</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.10671058438551</v>
-      </c>
-      <c r="L35" s="1">
-        <v>9.8798457842835999E-18</v>
-      </c>
-      <c r="M35">
-        <v>5.0629000417026004</v>
-      </c>
       <c r="O35" s="2">
         <f t="shared" si="0"/>
         <v>1.75877373682454</v>
@@ -4934,10 +4280,6 @@
       <c r="P35">
         <f t="shared" si="1"/>
         <v>2.8614573173368072</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4958,20 +4300,20 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <f>(-COS(3*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-3*SIN(3*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>-1.0500340131621302</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <f>(-COS(3*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))+3*SIN(3*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -4980,7 +4322,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <f>E3*PI()/180</f>
@@ -4990,14 +4332,14 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <f>(SIN(6*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>1.31362985753479</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <f>(-SIN(6*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -5006,20 +4348,20 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f>-SIN(D3)*SIN(D5)/SQRT(3)-H3*SIN(3*D5)-H2*POWER(SIN(3*D5),2)+COS(D5)</f>
         <v>0.43831401377131962</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <f>SIN(D3)*SIN(D5)/SQRT(3)+K3*SIN(3*D5)-K2*POWER(SIN(3*D5),2)+COS(D5)</f>
@@ -5028,7 +4370,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f>E5*PI()/180</f>
@@ -5040,34 +4382,34 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -5136,7 +4478,7 @@
         <v>-0.52359877559829882</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K15" si="4">IF(ABS(I10)&gt;$D$5,IF(I10&gt;0,$H$4+$H$3*SIN(3*I10)+$H$2*POWER(SIN(3*I10),2),$K$4+$K$3*SIN(3*I10)+$K$2*POWER(SIN(3*I10),2)),COS(I10)-SIN($D$3)*SIN(I10)/SQRT(3))</f>
+        <f t="shared" ref="K10" si="4">IF(ABS(I10)&gt;$D$5,IF(I10&gt;0,$H$4+$H$3*SIN(3*I10)+$H$2*POWER(SIN(3*I10),2),$K$4+$K$3*SIN(3*I10)+$K$2*POWER(SIN(3*I10),2)),COS(I10)-SIN($D$3)*SIN(I10)/SQRT(3))</f>
         <v>1.0922088530151051</v>
       </c>
       <c r="L10">
@@ -5144,7 +4486,7 @@
         <v>0.1</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M15" si="5">($D$2*COS($D$3)-SQRT($D$4*$D$4+L10*L10*K10*K10))/SIN($D$3)</f>
+        <f t="shared" ref="M10" si="5">($D$2*COS($D$3)-SQRT($D$4*$D$4+L10*L10*K10*K10))/SIN($D$3)</f>
         <v>3.1674209587639335</v>
       </c>
     </row>
